--- a/plots/percentile_multipath_var.xlsx
+++ b/plots/percentile_multipath_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94D90047-7DA1-9A4D-BC80-289349BAB8C7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FE3A96-E010-5A44-95BA-3A7343AB2693}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{9D9D76E5-1109-0349-A2CC-B19F1138DB15}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{9D9D76E5-1109-0349-A2CC-B19F1138DB15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{90B176EE-CC6B-334A-AB9E-3915F632E44E}" name="percentile_multipath_var_out" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tobiasba/repos/experimentscripts/out-dir/percentile_multipath_var_out.csv" thousands="'" tab="0" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="percentile_multipath_var_out" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/tobiasba/repos/experimentscripts/out-dir/percentile_multipath_var_out.csv" thousands="'" tab="0" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -42,12 +42,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Seconds</t>
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -136,7 +139,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>99.9 Percentile 3-hop-path</a:t>
             </a:r>
           </a:p>
@@ -155,7 +158,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -200,7 +203,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1370,364 +1373,364 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="118">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="119">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,10 +1757,36 @@
         <c:axId val="700748751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1794,12 +1823,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -1850,6 +1874,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1943,7 +1992,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1975,12 +2024,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2563,14 +2607,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -2601,7 +2645,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="percentile_multipath_var_out" connectionId="1" xr16:uid="{4C441756-2F92-E348-B4D1-327299E8E9AC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="percentile_multipath_var_out" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2901,20 +2945,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00B4649-14D7-FC41-9C48-62E2E47E2E97}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5.3630000000000004</v>
       </c>
@@ -2933,10 +2977,10 @@
         <v>38.987000000000002</v>
       </c>
       <c r="C2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15.404</v>
       </c>
@@ -2944,10 +2988,10 @@
         <v>38.956000000000003</v>
       </c>
       <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>25.446999999999999</v>
       </c>
@@ -2955,10 +2999,10 @@
         <v>38.956000000000003</v>
       </c>
       <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>35.487000000000002</v>
       </c>
@@ -2966,10 +3010,10 @@
         <v>38.965000000000003</v>
       </c>
       <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>45.539000000000001</v>
       </c>
@@ -2977,10 +3021,10 @@
         <v>38.999000000000002</v>
       </c>
       <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>55.582000000000001</v>
       </c>
@@ -2988,10 +3032,10 @@
         <v>38.939</v>
       </c>
       <c r="C7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>65.628</v>
       </c>
@@ -2999,10 +3043,10 @@
         <v>38.911999999999999</v>
       </c>
       <c r="C8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>75.671999999999997</v>
       </c>
@@ -3010,10 +3054,10 @@
         <v>39.902000000000001</v>
       </c>
       <c r="C9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>85.718000000000004</v>
       </c>
@@ -3021,10 +3065,10 @@
         <v>39.945</v>
       </c>
       <c r="C10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>95.757000000000005</v>
       </c>
@@ -3032,10 +3076,10 @@
         <v>45.249000000000002</v>
       </c>
       <c r="C11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>105.79600000000001</v>
       </c>
@@ -3043,10 +3087,10 @@
         <v>45.279000000000003</v>
       </c>
       <c r="C12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>115.84099999999999</v>
       </c>
@@ -3054,10 +3098,13 @@
         <v>51.555999999999997</v>
       </c>
       <c r="C13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>125.886</v>
       </c>
@@ -3065,10 +3112,10 @@
         <v>51.631999999999998</v>
       </c>
       <c r="C14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>135.92699999999999</v>
       </c>
@@ -3076,10 +3123,10 @@
         <v>51.707000000000001</v>
       </c>
       <c r="C15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>145.97200000000001</v>
       </c>
@@ -3087,7 +3134,7 @@
         <v>65.917000000000002</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3098,7 +3145,7 @@
         <v>68.042000000000002</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3109,7 +3156,7 @@
         <v>71.701999999999998</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3120,7 +3167,7 @@
         <v>73.08</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3131,7 +3178,7 @@
         <v>73.897999999999996</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3142,7 +3189,7 @@
         <v>78.581999999999994</v>
       </c>
       <c r="C21">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3153,7 +3200,7 @@
         <v>81.013000000000005</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3164,7 +3211,7 @@
         <v>86.953999999999994</v>
       </c>
       <c r="C23">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3175,7 +3222,7 @@
         <v>87.307000000000002</v>
       </c>
       <c r="C24">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3186,7 +3233,7 @@
         <v>95.58</v>
       </c>
       <c r="C25">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3197,7 +3244,7 @@
         <v>96.546999999999997</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3208,7 +3255,7 @@
         <v>100.083</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3219,7 +3266,7 @@
         <v>107.128</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3230,7 +3277,7 @@
         <v>107.488</v>
       </c>
       <c r="C29">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3241,7 +3288,7 @@
         <v>107.732</v>
       </c>
       <c r="C30">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3252,7 +3299,7 @@
         <v>113.583</v>
       </c>
       <c r="C31">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3263,7 +3310,7 @@
         <v>115.486</v>
       </c>
       <c r="C32">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3274,7 +3321,7 @@
         <v>120.20099999999999</v>
       </c>
       <c r="C33">
-        <v>78</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3285,7 +3332,7 @@
         <v>130.47499999999999</v>
       </c>
       <c r="C34">
-        <v>78</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3296,7 +3343,7 @@
         <v>130.86799999999999</v>
       </c>
       <c r="C35">
-        <v>78</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3307,7 +3354,7 @@
         <v>131.32900000000001</v>
       </c>
       <c r="C36">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3318,7 +3365,7 @@
         <v>133.13200000000001</v>
       </c>
       <c r="C37">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3329,7 +3376,7 @@
         <v>145.29</v>
       </c>
       <c r="C38">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3340,7 +3387,7 @@
         <v>146.63999999999999</v>
       </c>
       <c r="C39">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3351,7 +3398,7 @@
         <v>152.75700000000001</v>
       </c>
       <c r="C40">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3362,7 +3409,7 @@
         <v>153.40600000000001</v>
       </c>
       <c r="C41">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3373,7 +3420,7 @@
         <v>153.905</v>
       </c>
       <c r="C42">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3384,7 +3431,7 @@
         <v>164.07400000000001</v>
       </c>
       <c r="C43">
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3395,7 +3442,7 @@
         <v>165.078</v>
       </c>
       <c r="C44">
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3406,7 +3453,7 @@
         <v>167.797</v>
       </c>
       <c r="C45">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3417,7 +3464,7 @@
         <v>167.886</v>
       </c>
       <c r="C46">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3428,7 +3475,7 @@
         <v>173.626</v>
       </c>
       <c r="C47">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3439,7 +3486,7 @@
         <v>182.18600000000001</v>
       </c>
       <c r="C48">
-        <v>114</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3450,7 +3497,7 @@
         <v>188.96299999999999</v>
       </c>
       <c r="C49">
-        <v>114</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3461,7 +3508,7 @@
         <v>189.471</v>
       </c>
       <c r="C50">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3472,7 +3519,7 @@
         <v>196.44200000000001</v>
       </c>
       <c r="C51">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3483,7 +3530,7 @@
         <v>203.41800000000001</v>
       </c>
       <c r="C52">
-        <v>126</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3494,7 +3541,7 @@
         <v>204.001</v>
       </c>
       <c r="C53">
-        <v>126</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3505,7 +3552,7 @@
         <v>204.929</v>
       </c>
       <c r="C54">
-        <v>126</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3516,7 +3563,7 @@
         <v>205.72800000000001</v>
       </c>
       <c r="C55">
-        <v>132</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3527,7 +3574,7 @@
         <v>206.995</v>
       </c>
       <c r="C56">
-        <v>132</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3538,7 +3585,7 @@
         <v>222.19800000000001</v>
       </c>
       <c r="C57">
-        <v>138</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3549,7 +3596,7 @@
         <v>223.09800000000001</v>
       </c>
       <c r="C58">
-        <v>138</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3560,7 +3607,7 @@
         <v>223.59700000000001</v>
       </c>
       <c r="C59">
-        <v>138</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3571,7 +3618,7 @@
         <v>229.17599999999999</v>
       </c>
       <c r="C60">
-        <v>144</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3582,7 +3629,7 @@
         <v>236.83500000000001</v>
       </c>
       <c r="C61">
-        <v>144</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3593,7 +3640,7 @@
         <v>237.88900000000001</v>
       </c>
       <c r="C62">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3604,7 +3651,7 @@
         <v>239.25899999999999</v>
       </c>
       <c r="C63">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3615,7 +3662,7 @@
         <v>239.542</v>
       </c>
       <c r="C64">
-        <v>144</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3626,7 +3673,7 @@
         <v>252.81399999999999</v>
       </c>
       <c r="C65">
-        <v>144</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3637,7 +3684,7 @@
         <v>254.727</v>
       </c>
       <c r="C66">
-        <v>144</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3648,7 +3695,7 @@
         <v>255.458</v>
       </c>
       <c r="C67">
-        <v>138</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3659,7 +3706,7 @@
         <v>255.52600000000001</v>
       </c>
       <c r="C68">
-        <v>138</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3670,7 +3717,7 @@
         <v>257.48200000000003</v>
       </c>
       <c r="C69">
-        <v>132</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3681,7 +3728,7 @@
         <v>258.70100000000002</v>
       </c>
       <c r="C70">
-        <v>132</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3692,7 +3739,7 @@
         <v>260.13900000000001</v>
       </c>
       <c r="C71">
-        <v>132</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3703,7 +3750,7 @@
         <v>260.774</v>
       </c>
       <c r="C72">
-        <v>126</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3714,7 +3761,7 @@
         <v>260.84699999999998</v>
       </c>
       <c r="C73">
-        <v>126</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3725,7 +3772,7 @@
         <v>261.42200000000003</v>
       </c>
       <c r="C74">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3736,7 +3783,7 @@
         <v>262.18900000000002</v>
       </c>
       <c r="C75">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3747,7 +3794,7 @@
         <v>263.68</v>
       </c>
       <c r="C76">
-        <v>114</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3758,7 +3805,7 @@
         <v>265.91699999999997</v>
       </c>
       <c r="C77">
-        <v>114</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3769,7 +3816,7 @@
         <v>266.75599999999997</v>
       </c>
       <c r="C78">
-        <v>114</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3780,7 +3827,7 @@
         <v>267.20800000000003</v>
       </c>
       <c r="C79">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3791,7 +3838,7 @@
         <v>268.05099999999999</v>
       </c>
       <c r="C80">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -3802,7 +3849,7 @@
         <v>268.54300000000001</v>
       </c>
       <c r="C81">
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3813,7 +3860,7 @@
         <v>269.12099999999998</v>
       </c>
       <c r="C82">
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -3824,7 +3871,7 @@
         <v>270.20299999999997</v>
       </c>
       <c r="C83">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -3835,7 +3882,7 @@
         <v>270.74799999999999</v>
       </c>
       <c r="C84">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -3846,7 +3893,7 @@
         <v>270.59199999999998</v>
       </c>
       <c r="C85">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -3857,7 +3904,7 @@
         <v>270.90800000000002</v>
       </c>
       <c r="C86">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -3868,7 +3915,7 @@
         <v>271.09199999999998</v>
       </c>
       <c r="C87">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -3879,7 +3926,7 @@
         <v>271.59399999999999</v>
       </c>
       <c r="C88">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -3890,7 +3937,7 @@
         <v>271.911</v>
       </c>
       <c r="C89">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -3901,7 +3948,7 @@
         <v>272.03800000000001</v>
       </c>
       <c r="C90">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -3912,7 +3959,7 @@
         <v>272.06299999999999</v>
       </c>
       <c r="C91">
-        <v>78</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -3923,7 +3970,7 @@
         <v>271.62799999999999</v>
       </c>
       <c r="C92">
-        <v>78</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -3934,7 +3981,7 @@
         <v>271.762</v>
       </c>
       <c r="C93">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -3945,7 +3992,7 @@
         <v>272.05200000000002</v>
       </c>
       <c r="C94">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -3956,7 +4003,7 @@
         <v>272.09500000000003</v>
       </c>
       <c r="C95">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -3967,7 +4014,7 @@
         <v>271.85599999999999</v>
       </c>
       <c r="C96">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -3978,7 +4025,7 @@
         <v>271.92</v>
       </c>
       <c r="C97">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -3989,7 +4036,7 @@
         <v>272.00099999999998</v>
       </c>
       <c r="C98">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -4000,7 +4047,7 @@
         <v>272.03800000000001</v>
       </c>
       <c r="C99">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -4011,7 +4058,7 @@
         <v>272.13900000000001</v>
       </c>
       <c r="C100">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -4022,7 +4069,7 @@
         <v>271.93400000000003</v>
       </c>
       <c r="C101">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -4033,7 +4080,7 @@
         <v>271.476</v>
       </c>
       <c r="C102">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -4044,7 +4091,7 @@
         <v>271.21600000000001</v>
       </c>
       <c r="C103">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -4055,7 +4102,7 @@
         <v>270.82600000000002</v>
       </c>
       <c r="C104">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -4066,7 +4113,7 @@
         <v>269.88799999999998</v>
       </c>
       <c r="C105">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -4077,7 +4124,7 @@
         <v>269.11200000000002</v>
       </c>
       <c r="C106">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -4088,7 +4135,7 @@
         <v>268.86900000000003</v>
       </c>
       <c r="C107">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -4099,7 +4146,7 @@
         <v>268.37799999999999</v>
       </c>
       <c r="C108">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -4110,7 +4157,7 @@
         <v>267.89999999999998</v>
       </c>
       <c r="C109">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -4121,7 +4168,7 @@
         <v>266.89100000000002</v>
       </c>
       <c r="C110">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -4132,7 +4179,7 @@
         <v>265.27999999999997</v>
       </c>
       <c r="C111">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -4143,7 +4190,7 @@
         <v>264.83</v>
       </c>
       <c r="C112">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -4154,7 +4201,7 @@
         <v>264.31799999999998</v>
       </c>
       <c r="C113">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -4165,7 +4212,7 @@
         <v>264.31799999999998</v>
       </c>
       <c r="C114">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -4176,7 +4223,7 @@
         <v>263.01299999999998</v>
       </c>
       <c r="C115">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -4187,7 +4234,7 @@
         <v>259.68</v>
       </c>
       <c r="C116">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -4198,7 +4245,7 @@
         <v>258.48099999999999</v>
       </c>
       <c r="C117">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -4209,7 +4256,7 @@
         <v>257.822</v>
       </c>
       <c r="C118">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -4220,7 +4267,7 @@
         <v>257.822</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -4231,7 +4278,7 @@
         <v>255.71600000000001</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -4242,7 +4289,7 @@
         <v>254.49100000000001</v>
       </c>
       <c r="C121">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/plots/percentile_multipath_var.xlsx
+++ b/plots/percentile_multipath_var.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FE3A96-E010-5A44-95BA-3A7343AB2693}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639CE483-1CAD-7240-81C1-C23D0F7ED9CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{9D9D76E5-1109-0349-A2CC-B19F1138DB15}"/>
   </bookViews>
@@ -47,10 +47,10 @@
     <t>Seconds</t>
   </si>
   <si>
-    <t>Actual</t>
+    <t>s</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -970,7 +970,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1768,7 +1768,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1781,7 +1781,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -1800,7 +1800,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1880,7 +1880,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1893,7 +1893,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>ms</a:t>
                 </a:r>
               </a:p>
@@ -1912,7 +1912,1949 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700748751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>99.9 Percentile 3-hop-path</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>5.3630000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.446999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.487000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.539000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.582000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.671999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.757000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.79600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115.84099999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125.886</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135.92699999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145.97200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>156.01599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>166.06200000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>176.10599999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>186.14500000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>196.18799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>206.22499999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>216.26900000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>226.31100000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>236.35499999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>246.393</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>256.428</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>266.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>276.50599999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>286.548</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>296.589</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>306.642</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>316.68200000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>326.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>336.76799999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>346.80399999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>356.84699999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>366.88600000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>376.93099999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>386.97399999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>397.01400000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>407.05599999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>417.09800000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>427.14</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>437.17700000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>447.21600000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>457.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>467.29300000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>477.32900000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>487.36500000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>497.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>507.45</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>517.49099999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>527.52099999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>537.56100000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>547.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>557.63900000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>567.68100000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>577.71900000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>587.75699999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>597.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>607.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>617.88099999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>627.91999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>637.96</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>647.995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>658.03099999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>668.06299999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>678.096</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>688.13300000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>698.17100000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>708.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>718.245</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>728.28099999999995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>738.31600000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>748.35199999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>758.38900000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>768.42</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>778.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>788.49</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>798.52700000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>808.56200000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>818.59799999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>828.63099999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>838.66499999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>848.69600000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>858.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>868.76800000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>878.80100000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>888.83900000000006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>898.87199999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>908.90800000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>918.93899999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>928.97199999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>939.02800000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>949.06399999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>959.10299999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>969.14</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>979.178</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>989.21699999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>999.25699999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1009.289</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1019.322</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1029.3589999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1039.393</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1049.431</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1059.4680000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1069.5050000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1079.5419999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1089.579</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1099.6110000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1109.6489999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1119.694</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1129.7329999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1139.7739999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1149.8109999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1159.8499999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1169.8889999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1179.922</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1189.961</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>38.987000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.956000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.956000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.965000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.945</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.249000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.279000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.555999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.631999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.707000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.042000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.701999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.897999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.581999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81.013000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86.953999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>87.307000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.58</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96.546999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100.083</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>107.128</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>107.488</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107.732</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>113.583</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>115.486</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>120.20099999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>130.47499999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>130.86799999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>131.32900000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>133.13200000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>145.29</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>146.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>152.75700000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>153.40600000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>153.905</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>164.07400000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>165.078</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>167.797</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>167.886</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>173.626</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>182.18600000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>188.96299999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>189.471</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>196.44200000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>203.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>204.001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>204.929</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>205.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>206.995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>222.19800000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>223.09800000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>223.59700000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>229.17599999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>236.83500000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>237.88900000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>239.25899999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>239.542</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>252.81399999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>254.727</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>255.458</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>255.52600000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>257.48200000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>258.70100000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>260.13900000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>260.774</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>260.84699999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>261.42200000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>262.18900000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>263.68</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>265.91699999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>266.75599999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>267.20800000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>268.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>268.54300000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>269.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>270.20299999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>270.74799999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>270.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>270.90800000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>271.09199999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>271.59399999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>271.911</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>272.03800000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>272.06299999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>271.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>271.762</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>272.05200000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>272.09500000000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>271.85599999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>271.92</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>272.00099999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>272.03800000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>272.13900000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>271.93400000000003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>271.476</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>271.21600000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>270.82600000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>269.88799999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>269.11200000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>268.86900000000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>268.37799999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>267.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>266.89100000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>265.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>264.83</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>264.31799999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>264.31799999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>263.01299999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>259.68</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>258.48099999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>257.822</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>257.822</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>255.71600000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>254.49100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-949F-654D-8884-72554016A3B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Introduced</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>5.3630000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.446999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.487000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.539000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.582000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.671999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.757000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.79600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115.84099999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125.886</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135.92699999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145.97200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>156.01599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>166.06200000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>176.10599999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>186.14500000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>196.18799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>206.22499999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>216.26900000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>226.31100000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>236.35499999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>246.393</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>256.428</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>266.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>276.50599999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>286.548</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>296.589</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>306.642</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>316.68200000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>326.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>336.76799999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>346.80399999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>356.84699999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>366.88600000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>376.93099999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>386.97399999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>397.01400000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>407.05599999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>417.09800000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>427.14</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>437.17700000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>447.21600000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>457.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>467.29300000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>477.32900000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>487.36500000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>497.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>507.45</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>517.49099999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>527.52099999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>537.56100000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>547.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>557.63900000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>567.68100000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>577.71900000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>587.75699999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>597.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>607.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>617.88099999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>627.91999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>637.96</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>647.995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>658.03099999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>668.06299999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>678.096</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>688.13300000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>698.17100000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>708.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>718.245</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>728.28099999999995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>738.31600000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>748.35199999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>758.38900000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>768.42</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>778.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>788.49</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>798.52700000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>808.56200000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>818.59799999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>828.63099999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>838.66499999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>848.69600000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>858.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>868.76800000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>878.80100000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>888.83900000000006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>898.87199999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>908.90800000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>918.93899999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>928.97199999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>939.02800000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>949.06399999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>959.10299999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>969.14</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>979.178</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>989.21699999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>999.25699999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1009.289</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1019.322</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1029.3589999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1039.393</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1049.431</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1059.4680000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1069.5050000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1079.5419999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1089.579</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1099.6110000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1109.6489999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1119.694</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1129.7329999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1139.7739999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1149.8109999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1159.8499999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1169.8889999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1179.922</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1189.961</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-949F-654D-8884-72554016A3B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="700748751"/>
+        <c:axId val="700541423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="700748751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700541423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="700541423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2048,6 +3990,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2603,6 +4585,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2636,6 +5134,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0322CEB9-F3D7-3B40-A09E-CB93B275B2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2947,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00B4649-14D7-FC41-9C48-62E2E47E2E97}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2966,7 +5500,7 @@
         <v>99.9</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3101,7 +5635,7 @@
         <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
